--- a/策划案/Java/能力商店项目设计.xlsx
+++ b/策划案/Java/能力商店项目设计.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF9FBB5-6EED-4B8E-BBBA-B4C0D2DDD0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5D8BB6-507D-4C8C-8586-A13F1640E355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -20,16 +20,10 @@
     <definedName name="属性评价">#REF!</definedName>
     <definedName name="玩家类型">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2097,7 +2091,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2191,20 +2185,8 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="8">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2250,6 +2232,21 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -2749,12 +2746,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2763,10 +2760,10 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="41" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2777,26 +2774,26 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2805,10 +2802,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2817,10 +2814,10 @@
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -2829,141 +2826,145 @@
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2976,16 +2977,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -3011,10 +3008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B5D1A9-F0FF-4E96-944E-B6CBECEF1521}">
-  <dimension ref="A3:O64"/>
+  <dimension ref="A3:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3025,7 +3022,7 @@
     <col min="4" max="4" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
@@ -3035,7 +3032,7 @@
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -3048,18 +3045,18 @@
       <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
@@ -3072,18 +3069,18 @@
       <c r="D5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>39</v>
       </c>
@@ -3094,18 +3091,18 @@
         <v>41</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>42</v>
       </c>
@@ -3116,18 +3113,18 @@
         <v>41</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>44</v>
       </c>
@@ -3138,18 +3135,18 @@
         <v>41</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-    </row>
-    <row r="9" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+    </row>
+    <row r="9" spans="1:16" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>58</v>
       </c>
@@ -3162,18 +3159,18 @@
       <c r="D9" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>46</v>
       </c>
@@ -3184,18 +3181,18 @@
         <v>48</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>49</v>
       </c>
@@ -3206,18 +3203,18 @@
         <v>51</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:16" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>63</v>
       </c>
@@ -3230,18 +3227,18 @@
       <c r="D12" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:16" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>81</v>
       </c>
@@ -3254,25 +3251,27 @@
       <c r="D13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>29</v>
       </c>
@@ -3295,16 +3294,16 @@
       <c r="D17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -3317,16 +3316,16 @@
         <v>37</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -3339,16 +3338,16 @@
         <v>37</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -3361,16 +3360,16 @@
         <v>41</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
@@ -3383,16 +3382,16 @@
         <v>87</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
@@ -3407,16 +3406,16 @@
       <c r="D22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -3431,16 +3430,16 @@
       <c r="D23" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
@@ -3453,16 +3452,16 @@
         <v>48</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
     </row>
     <row r="25" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
@@ -3475,16 +3474,16 @@
         <v>109</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
@@ -3507,16 +3506,16 @@
       <c r="D29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
@@ -3529,16 +3528,16 @@
         <v>37</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
@@ -3551,16 +3550,16 @@
         <v>37</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
@@ -3573,16 +3572,16 @@
         <v>37</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
@@ -3597,16 +3596,16 @@
       <c r="D33" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
     </row>
     <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
@@ -3619,16 +3618,16 @@
         <v>51</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
@@ -3643,16 +3642,16 @@
       <c r="D35" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -3667,16 +3666,16 @@
       <c r="D36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
     </row>
     <row r="38" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -3700,16 +3699,16 @@
       <c r="D40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
     </row>
     <row r="41" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
@@ -3722,16 +3721,16 @@
         <v>37</v>
       </c>
       <c r="D41" s="22"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
     </row>
     <row r="42" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
@@ -3744,16 +3743,16 @@
         <v>37</v>
       </c>
       <c r="D42" s="22"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
     </row>
     <row r="43" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
@@ -3768,16 +3767,16 @@
       <c r="D43" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
     </row>
     <row r="44" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
@@ -3792,16 +3791,16 @@
       <c r="D44" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
     </row>
     <row r="45" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3826,16 +3825,16 @@
       <c r="D48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
     </row>
     <row r="49" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
@@ -3848,16 +3847,16 @@
         <v>37</v>
       </c>
       <c r="D49" s="26"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
     </row>
     <row r="50" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
@@ -3870,16 +3869,16 @@
         <v>37</v>
       </c>
       <c r="D50" s="26"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
     </row>
     <row r="51" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
@@ -3892,16 +3891,16 @@
         <v>51</v>
       </c>
       <c r="D51" s="26"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
     </row>
     <row r="52" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="31" t="s">
@@ -3916,16 +3915,16 @@
       <c r="D52" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
     </row>
     <row r="53" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
@@ -3938,16 +3937,16 @@
         <v>51</v>
       </c>
       <c r="D53" s="26"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
     </row>
     <row r="54" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3974,16 +3973,16 @@
       <c r="D57" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
@@ -3996,16 +3995,16 @@
         <v>37</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
@@ -4018,16 +4017,16 @@
         <v>37</v>
       </c>
       <c r="D59" s="13"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
@@ -4040,16 +4039,16 @@
         <v>37</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
     </row>
     <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
@@ -4062,16 +4061,16 @@
         <v>51</v>
       </c>
       <c r="D61" s="13"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
     </row>
     <row r="62" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
@@ -4084,16 +4083,16 @@
         <v>51</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
     </row>
     <row r="63" spans="1:15" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
@@ -4106,16 +4105,16 @@
         <v>48</v>
       </c>
       <c r="D63" s="13"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
@@ -4130,16 +4129,16 @@
       <c r="D64" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4175,21 +4174,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -4368,21 +4367,21 @@
     <row r="10" spans="1:13" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
@@ -4638,21 +4637,21 @@
       <c r="M21" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
@@ -4879,21 +4878,21 @@
       <c r="M32" s="22"/>
     </row>
     <row r="35" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
@@ -5149,21 +5148,21 @@
       <c r="M44" s="23"/>
     </row>
     <row r="47" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
     </row>
     <row r="48" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
@@ -5702,37 +5701,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
